--- a/doc/NorthwindJテーブル定義書.xlsx
+++ b/doc/NorthwindJテーブル定義書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uatimnvd-my.sharepoint.com/personal/satoshi_ichimaru_f-circle_biz/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02_dev\sql\NorthwindJ-postgres\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{84ED7C67-3CA6-4E34-8359-471B54308595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8C07EB8-9607-4250-B969-25054E7927B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D82C4-C544-4069-98E0-CAE135F43E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{F97E89FB-4468-4C5B-81B1-58EFBB3DEA51}"/>
   </bookViews>
@@ -402,9 +402,6 @@
     <t>運送料</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>受注_pkey</t>
   </si>
   <si>
@@ -673,6 +670,10 @@
   </si>
   <si>
     <t>地域</t>
+  </si>
+  <si>
+    <t>numeric</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1623,112 +1624,112 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1808,10 +1809,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2284,109 +2281,109 @@
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="87"/>
+      <c r="C6" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
@@ -2424,7 +2421,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>36</v>
@@ -2447,7 +2444,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>41</v>
@@ -2516,12 +2513,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="83"/>
+        <v>199</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="75"/>
       <c r="E20" s="23" t="s">
         <v>42</v>
       </c>
@@ -2557,51 +2554,51 @@
         <v>1</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
+      <c r="D24" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>2</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="D25" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
     </row>
     <row r="26" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="6">
         <v>3</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
+      <c r="D26" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
     </row>
     <row r="28" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
@@ -2619,10 +2616,10 @@
         <v>61</v>
       </c>
       <c r="D29" s="45"/>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="63"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="46" t="s">
         <v>78</v>
       </c>
@@ -2643,10 +2640,10 @@
         <v>61</v>
       </c>
       <c r="D32" s="39"/>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="65"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="31" t="s">
         <v>81</v>
       </c>
@@ -2656,16 +2653,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="66" t="s">
+      <c r="D33" s="87"/>
+      <c r="E33" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="67"/>
+      <c r="F33" s="87"/>
       <c r="G33" s="24" t="s">
         <v>112</v>
       </c>
@@ -2686,10 +2683,10 @@
         <v>85</v>
       </c>
       <c r="D36" s="45"/>
-      <c r="E36" s="62" t="s">
+      <c r="E36" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="46" t="s">
         <v>87</v>
       </c>
@@ -2718,134 +2715,138 @@
       <c r="A40" s="47">
         <v>1</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="68" t="s">
+      <c r="C40" s="61"/>
+      <c r="D40" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="71"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="48">
         <v>2</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="48">
         <v>3</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="58" t="s">
+      <c r="C42" s="88"/>
+      <c r="D42" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="78"/>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="48">
         <v>4</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="78"/>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="48">
         <v>5</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="58" t="s">
+      <c r="C44" s="88"/>
+      <c r="D44" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="78"/>
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="48">
         <v>6</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="58" t="s">
+      <c r="C45" s="88"/>
+      <c r="D45" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78"/>
     </row>
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="48">
         <v>7</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="58" t="s">
+      <c r="C46" s="88"/>
+      <c r="D46" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="49">
         <v>8</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="54" t="s">
+      <c r="C47" s="89"/>
+      <c r="D47" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="57"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B7:G7"/>
@@ -2859,20 +2860,16 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2914,109 +2911,109 @@
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
@@ -3100,10 +3097,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>206</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>20</v>
@@ -3123,10 +3120,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>20</v>
@@ -3146,7 +3143,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>47</v>
@@ -3225,10 +3222,10 @@
         <v>61</v>
       </c>
       <c r="D27" s="45"/>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="83"/>
       <c r="G27" s="46" t="s">
         <v>78</v>
       </c>
@@ -3249,10 +3246,10 @@
         <v>61</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="46" t="s">
         <v>81</v>
       </c>
@@ -3273,10 +3270,10 @@
         <v>85</v>
       </c>
       <c r="D33" s="45"/>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="46" t="s">
         <v>87</v>
       </c>
@@ -3305,124 +3302,139 @@
       <c r="A37" s="47">
         <v>1</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="68" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="48">
         <v>2</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="58" t="s">
+      <c r="C38" s="88"/>
+      <c r="D38" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="78"/>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="48">
         <v>3</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="58" t="s">
+      <c r="C39" s="88"/>
+      <c r="D39" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
     </row>
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="48">
         <v>4</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="48">
         <v>5</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="58" t="s">
+      <c r="C41" s="88"/>
+      <c r="D41" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="48">
         <v>6</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="58" t="s">
+      <c r="C42" s="88"/>
+      <c r="D42" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="78"/>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="48">
         <v>7</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="58" t="s">
+      <c r="C43" s="88"/>
+      <c r="D43" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="78"/>
     </row>
     <row r="44" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="49">
         <v>8</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="54" t="s">
+      <c r="C44" s="89"/>
+      <c r="D44" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="57"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="C2:D2"/>
@@ -3439,21 +3451,6 @@
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3509,109 +3506,109 @@
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
@@ -3973,10 +3970,10 @@
       <c r="B30" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="83"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="23" t="s">
         <v>42</v>
       </c>
@@ -4017,12 +4014,12 @@
       <c r="C34" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
@@ -4034,12 +4031,12 @@
       <c r="C35" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
     </row>
     <row r="36" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="6">
@@ -4051,12 +4048,12 @@
       <c r="C36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="38" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="2" t="s">
@@ -4074,10 +4071,10 @@
         <v>61</v>
       </c>
       <c r="D39" s="45"/>
-      <c r="E39" s="62" t="s">
+      <c r="E39" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="46" t="s">
         <v>78</v>
       </c>
@@ -4098,10 +4095,10 @@
         <v>61</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="65"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="31" t="s">
         <v>81</v>
       </c>
@@ -4113,14 +4110,14 @@
       <c r="B43" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="66" t="s">
+      <c r="D43" s="87"/>
+      <c r="E43" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="67"/>
+      <c r="F43" s="87"/>
       <c r="G43" s="24" t="s">
         <v>35</v>
       </c>
@@ -4141,10 +4138,10 @@
         <v>85</v>
       </c>
       <c r="D46" s="45"/>
-      <c r="E46" s="62" t="s">
+      <c r="E46" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="63"/>
+      <c r="F46" s="83"/>
       <c r="G46" s="46" t="s">
         <v>87</v>
       </c>
@@ -4173,134 +4170,138 @@
       <c r="A50" s="47">
         <v>1</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="68" t="s">
+      <c r="C50" s="61"/>
+      <c r="D50" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="71"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="48">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="58" t="s">
+      <c r="C51" s="88"/>
+      <c r="D51" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
     </row>
     <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="48">
         <v>3</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="58" t="s">
+      <c r="C52" s="88"/>
+      <c r="D52" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="48">
         <v>4</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
     </row>
     <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="48">
         <v>5</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="58" t="s">
+      <c r="C54" s="88"/>
+      <c r="D54" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="61"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
     </row>
     <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="48">
         <v>6</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="58" t="s">
+      <c r="C55" s="88"/>
+      <c r="D55" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="48">
         <v>7</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="58" t="s">
+      <c r="C56" s="88"/>
+      <c r="D56" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="61"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
     </row>
     <row r="57" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A57" s="49">
         <v>8</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="54" t="s">
+      <c r="C57" s="89"/>
+      <c r="D57" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="57"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:G50"/>
     <mergeCell ref="B7:G7"/>
@@ -4314,20 +4315,16 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4346,7 +4343,9 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4367,109 +4366,109 @@
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
@@ -4786,7 +4785,7 @@
         <v>117</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>20</v>
@@ -4829,12 +4828,12 @@
         <v>1</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="83"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="23" t="s">
         <v>42</v>
       </c>
@@ -4870,34 +4869,34 @@
         <v>1</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
+      <c r="D34" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="6">
         <v>2</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
@@ -4915,10 +4914,10 @@
         <v>61</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="65"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="31" t="s">
         <v>78</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="90" t="s">
         <v>104</v>
@@ -4947,13 +4946,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="76" t="s">
         <v>105</v>
       </c>
       <c r="D40" s="92"/>
-      <c r="E40" s="58" t="s">
+      <c r="E40" s="76" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="92"/>
@@ -4966,18 +4965,18 @@
         <v>3</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="79" t="s">
         <v>112</v>
       </c>
       <c r="D41" s="93"/>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="79" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="93"/>
       <c r="G41" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4996,10 +4995,10 @@
         <v>61</v>
       </c>
       <c r="D44" s="39"/>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="65"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="31" t="s">
         <v>81</v>
       </c>
@@ -5009,16 +5008,16 @@
         <v>1</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="66" t="s">
+      <c r="D45" s="87"/>
+      <c r="E45" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="67"/>
+      <c r="F45" s="87"/>
       <c r="G45" s="24" t="s">
         <v>103</v>
       </c>
@@ -5039,10 +5038,10 @@
         <v>85</v>
       </c>
       <c r="D48" s="45"/>
-      <c r="E48" s="62" t="s">
+      <c r="E48" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="63"/>
+      <c r="F48" s="83"/>
       <c r="G48" s="46" t="s">
         <v>87</v>
       </c>
@@ -5071,124 +5070,150 @@
       <c r="A52" s="47">
         <v>1</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="68" t="s">
+      <c r="C52" s="61"/>
+      <c r="D52" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="71"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63"/>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="48">
         <v>2</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="58" t="s">
+      <c r="C53" s="88"/>
+      <c r="D53" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
     </row>
     <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="48">
         <v>3</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="58" t="s">
+      <c r="C54" s="88"/>
+      <c r="D54" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="61"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
     </row>
     <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="48">
         <v>4</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="48">
         <v>5</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="58" t="s">
+      <c r="C56" s="88"/>
+      <c r="D56" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="61"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
     </row>
     <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="48">
         <v>6</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="58" t="s">
+      <c r="C57" s="88"/>
+      <c r="D57" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="61"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
     </row>
     <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="48">
         <v>7</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="58" t="s">
+      <c r="C58" s="88"/>
+      <c r="D58" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="61"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
     </row>
     <row r="59" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="49">
         <v>8</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="54" t="s">
+      <c r="C59" s="89"/>
+      <c r="D59" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="57"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -5205,32 +5230,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5270,109 +5269,109 @@
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="87"/>
+      <c r="C6" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
@@ -5433,7 +5432,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>36</v>
@@ -5456,10 +5455,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>42</v>
@@ -5479,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>36</v>
@@ -5502,10 +5501,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>132</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>42</v>
@@ -5548,12 +5547,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="83"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="23" t="s">
         <v>42</v>
       </c>
@@ -5589,102 +5588,102 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
+      <c r="D26" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>2</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
+      <c r="D27" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <v>3</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
+      <c r="D28" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <v>4</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+      <c r="D29" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
     </row>
     <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>5</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
+      <c r="D30" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
     </row>
     <row r="31" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="6">
         <v>6</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="57"/>
+      <c r="D31" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="81"/>
     </row>
     <row r="33" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="2" t="s">
@@ -5702,10 +5701,10 @@
         <v>61</v>
       </c>
       <c r="D34" s="39"/>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="65"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="31" t="s">
         <v>78</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="90" t="s">
         <v>103</v>
@@ -5734,18 +5733,18 @@
         <v>2</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>128</v>
+        <v>143</v>
+      </c>
+      <c r="C36" s="79" t="s">
+        <v>127</v>
       </c>
       <c r="D36" s="93"/>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="79" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="93"/>
       <c r="G36" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5764,10 +5763,10 @@
         <v>61</v>
       </c>
       <c r="D39" s="45"/>
-      <c r="E39" s="62" t="s">
+      <c r="E39" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="46" t="s">
         <v>81</v>
       </c>
@@ -5788,10 +5787,10 @@
         <v>85</v>
       </c>
       <c r="D42" s="45"/>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="83"/>
       <c r="G42" s="46" t="s">
         <v>87</v>
       </c>
@@ -5820,124 +5819,150 @@
       <c r="A46" s="47">
         <v>1</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="68" t="s">
+      <c r="C46" s="61"/>
+      <c r="D46" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="48">
         <v>2</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="78"/>
     </row>
     <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="48">
         <v>3</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="58" t="s">
+      <c r="C48" s="88"/>
+      <c r="D48" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="78"/>
     </row>
     <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="48">
         <v>4</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="61"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
     </row>
     <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="48">
         <v>5</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="88"/>
+      <c r="D50" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="78"/>
     </row>
     <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="48">
         <v>6</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="58" t="s">
+      <c r="C51" s="88"/>
+      <c r="D51" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
     </row>
     <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="48">
         <v>7</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="58" t="s">
+      <c r="C52" s="88"/>
+      <c r="D52" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53" s="49">
         <v>8</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="54" t="s">
+      <c r="C53" s="89"/>
+      <c r="D53" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="57"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -5954,32 +5979,6 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6019,109 +6018,109 @@
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="87"/>
+      <c r="C6" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
@@ -6159,7 +6158,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>36</v>
@@ -6205,7 +6204,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>41</v>
@@ -6251,7 +6250,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>36</v>
@@ -6274,7 +6273,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>109</v>
@@ -6297,10 +6296,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>20</v>
@@ -6320,7 +6319,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>36</v>
@@ -6343,7 +6342,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>36</v>
@@ -6366,7 +6365,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>36</v>
@@ -6389,10 +6388,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>152</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>153</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>42</v>
@@ -6435,12 +6434,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="83"/>
+        <v>153</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="75"/>
       <c r="E28" s="23" t="s">
         <v>42</v>
       </c>
@@ -6476,68 +6475,68 @@
         <v>1</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
+      <c r="D32" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>2</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
+      <c r="D33" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>3</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
+      <c r="D34" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="6">
         <v>4</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
+      <c r="D35" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
@@ -6555,10 +6554,10 @@
         <v>61</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="65"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="31" t="s">
         <v>78</v>
       </c>
@@ -6587,18 +6586,18 @@
         <v>2</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>147</v>
+        <v>159</v>
+      </c>
+      <c r="C40" s="79" t="s">
+        <v>146</v>
       </c>
       <c r="D40" s="93"/>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="93"/>
       <c r="G40" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6617,10 +6616,10 @@
         <v>61</v>
       </c>
       <c r="D43" s="39"/>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="65"/>
+      <c r="F43" s="85"/>
       <c r="G43" s="31" t="s">
         <v>81</v>
       </c>
@@ -6630,18 +6629,18 @@
         <v>1</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="87"/>
+      <c r="E44" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="67"/>
+      <c r="F44" s="87"/>
       <c r="G44" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6660,10 +6659,10 @@
         <v>85</v>
       </c>
       <c r="D47" s="45"/>
-      <c r="E47" s="62" t="s">
+      <c r="E47" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="83"/>
       <c r="G47" s="46" t="s">
         <v>87</v>
       </c>
@@ -6692,124 +6691,150 @@
       <c r="A51" s="47">
         <v>1</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="68" t="s">
+      <c r="C51" s="61"/>
+      <c r="D51" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="71"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
     </row>
     <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="48">
         <v>2</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="48">
         <v>3</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="58" t="s">
+      <c r="C53" s="88"/>
+      <c r="D53" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
     </row>
     <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="48">
         <v>4</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="61"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
     </row>
     <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="48">
         <v>5</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="58" t="s">
+      <c r="C55" s="88"/>
+      <c r="D55" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="48">
         <v>6</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="58" t="s">
+      <c r="C56" s="88"/>
+      <c r="D56" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="61"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
     </row>
     <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="48">
         <v>7</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="58" t="s">
+      <c r="C57" s="88"/>
+      <c r="D57" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="61"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
     </row>
     <row r="58" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="49">
         <v>8</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="54" t="s">
+      <c r="C58" s="89"/>
+      <c r="D58" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="57"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -6826,32 +6851,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6891,109 +6890,109 @@
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="87"/>
+      <c r="C6" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
@@ -7031,7 +7030,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>36</v>
@@ -7054,7 +7053,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>44</v>
@@ -7077,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>58</v>
@@ -7100,10 +7099,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>20</v>
@@ -7146,12 +7145,12 @@
         <v>1</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="83"/>
+        <v>165</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="75"/>
       <c r="E21" s="23" t="s">
         <v>42</v>
       </c>
@@ -7187,51 +7186,51 @@
         <v>1</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="D25" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>2</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
+      <c r="D26" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
     </row>
     <row r="27" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="6">
         <v>3</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
+      <c r="D27" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="81"/>
     </row>
     <row r="29" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="2" t="s">
@@ -7249,10 +7248,10 @@
         <v>61</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="46" t="s">
         <v>78</v>
       </c>
@@ -7273,10 +7272,10 @@
         <v>61</v>
       </c>
       <c r="D33" s="39"/>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="31" t="s">
         <v>81</v>
       </c>
@@ -7286,18 +7285,18 @@
         <v>1</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="87"/>
+      <c r="E34" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="67"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -7316,10 +7315,10 @@
         <v>85</v>
       </c>
       <c r="D37" s="45"/>
-      <c r="E37" s="62" t="s">
+      <c r="E37" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="46" t="s">
         <v>87</v>
       </c>
@@ -7348,134 +7347,138 @@
       <c r="A41" s="47">
         <v>1</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="68" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="48">
         <v>2</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="78"/>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="48">
         <v>3</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="58" t="s">
+      <c r="C43" s="88"/>
+      <c r="D43" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="78"/>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="48">
         <v>4</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="78"/>
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="48">
         <v>5</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="58" t="s">
+      <c r="C45" s="88"/>
+      <c r="D45" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78"/>
     </row>
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="48">
         <v>6</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="58" t="s">
+      <c r="C46" s="88"/>
+      <c r="D46" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="48">
         <v>7</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="58" t="s">
+      <c r="C47" s="88"/>
+      <c r="D47" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="78"/>
     </row>
     <row r="48" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="49">
         <v>8</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="54" t="s">
+      <c r="C48" s="89"/>
+      <c r="D48" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="57"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="B7:G7"/>
@@ -7489,20 +7492,16 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7542,109 +7541,109 @@
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="87"/>
+      <c r="C6" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
@@ -7728,7 +7727,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>41</v>
@@ -7981,12 +7980,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="83"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="23" t="s">
         <v>42</v>
       </c>
@@ -8022,51 +8021,51 @@
         <v>1</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
+      <c r="D33" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>2</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
+      <c r="D34" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="6">
         <v>3</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
@@ -8084,10 +8083,10 @@
         <v>61</v>
       </c>
       <c r="D38" s="45"/>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="83"/>
       <c r="G38" s="46" t="s">
         <v>78</v>
       </c>
@@ -8108,10 +8107,10 @@
         <v>61</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="65"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="31" t="s">
         <v>81</v>
       </c>
@@ -8121,16 +8120,16 @@
         <v>1</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="66" t="s">
+      <c r="D42" s="87"/>
+      <c r="E42" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="67"/>
+      <c r="F42" s="87"/>
       <c r="G42" s="24" t="s">
         <v>104</v>
       </c>
@@ -8151,10 +8150,10 @@
         <v>85</v>
       </c>
       <c r="D45" s="45"/>
-      <c r="E45" s="62" t="s">
+      <c r="E45" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="83"/>
       <c r="G45" s="46" t="s">
         <v>87</v>
       </c>
@@ -8183,134 +8182,138 @@
       <c r="A49" s="47">
         <v>1</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="68" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="48">
         <v>2</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="78"/>
     </row>
     <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="48">
         <v>3</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="58" t="s">
+      <c r="C51" s="88"/>
+      <c r="D51" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
     </row>
     <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="48">
         <v>4</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="48">
         <v>5</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="58" t="s">
+      <c r="C53" s="88"/>
+      <c r="D53" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
     </row>
     <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="48">
         <v>6</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="58" t="s">
+      <c r="C54" s="88"/>
+      <c r="D54" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="61"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
     </row>
     <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="48">
         <v>7</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="58" t="s">
+      <c r="C55" s="88"/>
+      <c r="D55" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
     </row>
     <row r="56" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="49">
         <v>8</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="54" t="s">
+      <c r="C56" s="89"/>
+      <c r="D56" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="57"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="B7:G7"/>
@@ -8324,20 +8327,16 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8377,109 +8376,109 @@
       <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="87"/>
+      <c r="C6" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="59"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
@@ -8563,7 +8562,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>41</v>
@@ -8586,7 +8585,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>109</v>
@@ -8609,7 +8608,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>44</v>
@@ -8632,7 +8631,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>114</v>
@@ -8655,7 +8654,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>114</v>
@@ -8678,7 +8677,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>47</v>
@@ -8701,7 +8700,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>41</v>
@@ -8724,7 +8723,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>52</v>
@@ -8747,7 +8746,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>52</v>
@@ -8770,7 +8769,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>55</v>
@@ -8793,10 +8792,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>20</v>
@@ -8816,10 +8815,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>20</v>
@@ -8839,7 +8838,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>58</v>
@@ -8885,12 +8884,12 @@
         <v>1</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="83"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="23" t="s">
         <v>42</v>
       </c>
@@ -8926,51 +8925,51 @@
         <v>1</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="71"/>
+      <c r="D36" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <v>2</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
+      <c r="D37" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="78"/>
     </row>
     <row r="38" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="6">
         <v>3</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="57"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="81"/>
     </row>
     <row r="40" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="2" t="s">
@@ -8988,10 +8987,10 @@
         <v>61</v>
       </c>
       <c r="D41" s="45"/>
-      <c r="E41" s="62" t="s">
+      <c r="E41" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="83"/>
       <c r="G41" s="46" t="s">
         <v>78</v>
       </c>
@@ -9012,10 +9011,10 @@
         <v>61</v>
       </c>
       <c r="D44" s="39"/>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="65"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="31" t="s">
         <v>81</v>
       </c>
@@ -9025,16 +9024,16 @@
         <v>1</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="66" t="s">
+      <c r="D45" s="87"/>
+      <c r="E45" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="67"/>
+      <c r="F45" s="87"/>
       <c r="G45" s="24" t="s">
         <v>105</v>
       </c>
@@ -9055,10 +9054,10 @@
         <v>85</v>
       </c>
       <c r="D48" s="45"/>
-      <c r="E48" s="62" t="s">
+      <c r="E48" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="63"/>
+      <c r="F48" s="83"/>
       <c r="G48" s="46" t="s">
         <v>87</v>
       </c>
@@ -9087,134 +9086,138 @@
       <c r="A52" s="47">
         <v>1</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="68" t="s">
+      <c r="C52" s="61"/>
+      <c r="D52" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="71"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63"/>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="48">
         <v>2</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
     </row>
     <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="48">
         <v>3</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="58" t="s">
+      <c r="C54" s="88"/>
+      <c r="D54" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="61"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
     </row>
     <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="48">
         <v>4</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="48">
         <v>5</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="58" t="s">
+      <c r="C56" s="88"/>
+      <c r="D56" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="61"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
     </row>
     <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="48">
         <v>6</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="58" t="s">
+      <c r="C57" s="88"/>
+      <c r="D57" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="61"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
     </row>
     <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="48">
         <v>7</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="58" t="s">
+      <c r="C58" s="88"/>
+      <c r="D58" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="61"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
     </row>
     <row r="59" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="49">
         <v>8</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="54" t="s">
+      <c r="C59" s="89"/>
+      <c r="D59" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="57"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="B7:G7"/>
@@ -9228,20 +9231,16 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
